--- a/Planning_projet_version_finale.xlsx
+++ b/Planning_projet_version_finale.xlsx
@@ -172,13 +172,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="16" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
@@ -190,7 +189,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="16" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -211,6 +210,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -533,7 +536,7 @@
   <dimension ref="A1:L22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection sqref="A1:K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -551,170 +554,143 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="G1" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="I1" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="J1" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="K1" s="12" t="s">
+      <c r="K1" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="L1" s="13"/>
+      <c r="L1" s="12"/>
     </row>
     <row r="2" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="7" t="s">
         <v>15</v>
       </c>
       <c r="B2" s="1"/>
-      <c r="L2" s="3"/>
     </row>
     <row r="3" spans="1:12" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="8"/>
+      <c r="A3" s="7"/>
       <c r="B3" s="2"/>
-      <c r="L3" s="3"/>
     </row>
     <row r="4" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="8" t="s">
         <v>10</v>
       </c>
       <c r="C4" s="1"/>
-      <c r="L4" s="3"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A5" s="9"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="L5" s="3"/>
+      <c r="A5" s="8"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
     </row>
     <row r="6" spans="1:12" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="L6" s="3"/>
     </row>
     <row r="7" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="8"/>
+      <c r="A7" s="7"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
-      <c r="L7" s="3"/>
     </row>
     <row r="8" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="8" t="s">
         <v>17</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
-      <c r="L8" s="3"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A9" s="9"/>
-      <c r="L9" s="3"/>
+      <c r="A9" s="8"/>
     </row>
     <row r="10" spans="1:12" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="7" t="s">
         <v>16</v>
       </c>
       <c r="F10" s="1"/>
-      <c r="G10" s="3"/>
-      <c r="L10" s="3"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A11" s="8"/>
-      <c r="L11" s="3"/>
+      <c r="A11" s="7"/>
     </row>
     <row r="12" spans="1:12" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="9" t="s">
+      <c r="A12" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="F12" s="3"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
-      <c r="L12" s="5"/>
+      <c r="L12" s="4"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A13" s="9"/>
+      <c r="A13" s="8"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
-      <c r="L13" s="3"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A14" s="8" t="s">
+      <c r="A14" s="7" t="s">
         <v>18</v>
       </c>
       <c r="I14" s="1"/>
-      <c r="L14" s="3"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A15" s="8"/>
+      <c r="A15" s="7"/>
       <c r="I15" s="2"/>
-      <c r="L15" s="3"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A16" s="10" t="s">
+      <c r="A16" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="I16" s="5"/>
+      <c r="I16" s="4"/>
       <c r="J16" s="1"/>
-      <c r="K16" s="6"/>
-      <c r="L16" s="3"/>
+      <c r="K16" s="5"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A17" s="9"/>
+      <c r="A17" s="8"/>
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
-      <c r="L17" s="3"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A18" s="8" t="s">
+      <c r="A18" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C18" s="6"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
-      <c r="K18" s="3"/>
-      <c r="L18" s="3"/>
+      <c r="C18" s="5"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A19" s="8"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
-      <c r="J19" s="4"/>
-      <c r="K19" s="4"/>
-      <c r="L19" s="5"/>
+      <c r="A19" s="7"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="4"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B22" s="1" t="s">
